--- a/src/main/resources/poi/report_warehouse_outStockItem.xlsx
+++ b/src/main/resources/poi/report_warehouse_outStockItem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyupeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18488C0A-A12F-485B-AEA5-A04BFFAB01B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642DE93-2AA4-4E1F-95E9-EC0DC7EDB149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2700" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -275,6 +274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +589,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -605,23 +607,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="K1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="K1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -651,22 +653,22 @@
       <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -689,7 +691,7 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -701,7 +703,7 @@
       <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -710,10 +712,10 @@
       <c r="M3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="4" t="s">
